--- a/q22/Q22填表答案_单值结果.xlsx
+++ b/q22/Q22填表答案_单值结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-49.90736</v>
+        <v>-49.94752</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.02654</v>
+        <v>-2.27486</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.05603333333333</v>
+        <v>-16.14103333333334</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.019625</v>
+        <v>11.24605</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.644533333333333</v>
+        <v>-5.4616</v>
       </c>
     </row>
     <row r="7">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-25.9812</v>
+        <v>-8.904675000000001</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.281933333333333</v>
+        <v>-8.118566666666668</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.13182</v>
+        <v>-6.474680000000001</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2267428571428571</v>
+        <v>0.6638714285714284</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.48066</v>
+        <v>-2.9236</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.2294</v>
+        <v>4.424399999999999</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-25.87583333333333</v>
+        <v>-25.9526</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-20.34645</v>
+        <v>-21.15065</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19.8152</v>
+        <v>-18.630975</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.756716666666667</v>
+        <v>5.4431</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.7501</v>
+        <v>14.29286</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.98945</v>
+        <v>13.9328</v>
       </c>
     </row>
     <row r="23">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-24.92605714285714</v>
+        <v>-25.17154285714286</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.16665</v>
+        <v>2.680575</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.338866666666668</v>
+        <v>8.257299999999999</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.541175</v>
+        <v>-3.59165</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.613575000000001</v>
+        <v>9.558125</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.20462</v>
+        <v>-7.253359999999999</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-10.655575</v>
+        <v>-10.71145</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.127766666666666</v>
+        <v>-8.215</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.5316</v>
+        <v>26.46136666666667</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.4129</v>
+        <v>23.36391666666666</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-18.7951</v>
+        <v>-18.849675</v>
       </c>
     </row>
     <row r="36">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.3009</v>
+        <v>13.25504</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-7.300860000000002</v>
+        <v>-7.35112</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13.67808</v>
+        <v>13.6427</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-25.34998571428572</v>
+        <v>-25.39667142857143</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.07595</v>
+        <v>-6.1154</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23.9277</v>
+        <v>23.879275</v>
       </c>
     </row>
     <row r="43">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.451275</v>
+        <v>5.38045</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-16.42671666666667</v>
+        <v>-16.46566666666667</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.946075</v>
+        <v>12.910175</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-6.947366666666666</v>
+        <v>-6.978699999999999</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17.7763</v>
+        <v>17.701275</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-7.557799999999999</v>
+        <v>-7.6248</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>28.82125</v>
+        <v>28.762975</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>18.2596</v>
+        <v>18.20533333333333</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>18.2747</v>
+        <v>18.242</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-10.02271666666667</v>
+        <v>-10.04545</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.164175</v>
+        <v>7.116875</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>13.9457</v>
+        <v>13.901825</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-5.1384</v>
+        <v>-5.211966666666666</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>14.03695555555556</v>
+        <v>13.98993333333333</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>22.63036666666666</v>
+        <v>22.57493333333333</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10.39723333333333</v>
+        <v>10.31513333333333</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.017833333333333</v>
+        <v>4.430033333333333</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.4429111111111108</v>
+        <v>-0.4884888888888877</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-29.18111666666667</v>
+        <v>-29.23713333333333</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13.7891</v>
+        <v>13.71893333333333</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-14.5572375</v>
+        <v>-14.6062125</v>
       </c>
     </row>
     <row r="65">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-12.486275</v>
+        <v>-12.53335</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.01774</v>
+        <v>3.95328</v>
       </c>
     </row>
     <row r="68">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-2.2895375</v>
+        <v>-2.307275</v>
       </c>
     </row>
     <row r="70">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>22.27183333333333</v>
+        <v>22.19813333333333</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-29.9267</v>
+        <v>-29.98445</v>
       </c>
     </row>
     <row r="76">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>21.76278</v>
+        <v>21.71322</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.38932</v>
+        <v>2.3404</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7.9212</v>
+        <v>7.404866666666667</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.6589400000000001</v>
+        <v>0.3346600000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20.39676666666666</v>
+        <v>20.33836666666667</v>
       </c>
     </row>
     <row r="82">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1.698866666666667</v>
+        <v>-1.767633333333333</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-8.639466666666667</v>
+        <v>-8.7142</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.5547</v>
+        <v>7.482400000000001</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-9.257866666666667</v>
+        <v>-9.313633333333334</v>
       </c>
     </row>
     <row r="87">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>26.1725</v>
+        <v>26.14566</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-12.0449</v>
+        <v>-12.53596666666667</v>
       </c>
     </row>
     <row r="90">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.5234750000000012</v>
+        <v>-0.5833750000000002</v>
       </c>
     </row>
     <row r="92">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3.85372</v>
+        <v>3.632</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>14.80394</v>
+        <v>14.75548</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-63.16616</v>
+        <v>-63.20434</v>
       </c>
     </row>
     <row r="97">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>22.2474</v>
+        <v>22.17703333333333</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.36884</v>
+        <v>2.32624</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.429866666666666</v>
+        <v>5.345666666666666</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,17 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>24.04823333333333</v>
+        <v>23.98100000000001</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sub101</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>14.2872</v>
       </c>
     </row>
   </sheetData>

--- a/q22/Q22填表答案_单值结果.xlsx
+++ b/q22/Q22填表答案_单值结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-49.94752</v>
+        <v>-49.90736</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.27486</v>
+        <v>-3.02654</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.14103333333334</v>
+        <v>-16.05603333333333</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.24605</v>
+        <v>10.019625</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.4616</v>
+        <v>-6.644533333333333</v>
       </c>
     </row>
     <row r="7">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.904675000000001</v>
+        <v>-25.9812</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.118566666666668</v>
+        <v>-9.281933333333333</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.474680000000001</v>
+        <v>-6.13182</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6638714285714284</v>
+        <v>-0.2267428571428571</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.9236</v>
+        <v>-2.48066</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.424399999999999</v>
+        <v>3.2294</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-25.9526</v>
+        <v>-25.87583333333333</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-21.15065</v>
+        <v>-20.34645</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-18.630975</v>
+        <v>-19.8152</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.4431</v>
+        <v>4.756716666666667</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.29286</v>
+        <v>13.7501</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.9328</v>
+        <v>13.98945</v>
       </c>
     </row>
     <row r="23">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-25.17154285714286</v>
+        <v>-24.92605714285714</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.680575</v>
+        <v>3.16665</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.257299999999999</v>
+        <v>8.338866666666668</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.59165</v>
+        <v>-3.541175</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.558125</v>
+        <v>9.613575000000001</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.253359999999999</v>
+        <v>-7.20462</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-10.71145</v>
+        <v>-10.655575</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.215</v>
+        <v>-8.127766666666666</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.46136666666667</v>
+        <v>26.5316</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.36391666666666</v>
+        <v>23.4129</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-18.849675</v>
+        <v>-18.7951</v>
       </c>
     </row>
     <row r="36">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.25504</v>
+        <v>13.3009</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-7.35112</v>
+        <v>-7.300860000000002</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13.6427</v>
+        <v>13.67808</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-25.39667142857143</v>
+        <v>-25.34998571428572</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.1154</v>
+        <v>-6.07595</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23.879275</v>
+        <v>23.9277</v>
       </c>
     </row>
     <row r="43">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.38045</v>
+        <v>5.451275</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-16.46566666666667</v>
+        <v>-16.42671666666667</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.910175</v>
+        <v>12.946075</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-6.978699999999999</v>
+        <v>-6.947366666666666</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17.701275</v>
+        <v>17.7763</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-7.6248</v>
+        <v>-7.557799999999999</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>28.762975</v>
+        <v>28.82125</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>18.20533333333333</v>
+        <v>18.2596</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>18.242</v>
+        <v>18.2747</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-10.04545</v>
+        <v>-10.02271666666667</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.116875</v>
+        <v>7.164175</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>13.901825</v>
+        <v>13.9457</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-5.211966666666666</v>
+        <v>-5.1384</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13.98993333333333</v>
+        <v>14.03695555555556</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>22.57493333333333</v>
+        <v>22.63036666666666</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10.31513333333333</v>
+        <v>10.39723333333333</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.430033333333333</v>
+        <v>4.017833333333333</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.4884888888888877</v>
+        <v>-0.4429111111111108</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-29.23713333333333</v>
+        <v>-29.18111666666667</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13.71893333333333</v>
+        <v>13.7891</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-14.6062125</v>
+        <v>-14.5572375</v>
       </c>
     </row>
     <row r="65">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-12.53335</v>
+        <v>-12.486275</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3.95328</v>
+        <v>4.01774</v>
       </c>
     </row>
     <row r="68">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-2.307275</v>
+        <v>-2.2895375</v>
       </c>
     </row>
     <row r="70">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>22.19813333333333</v>
+        <v>22.27183333333333</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-29.98445</v>
+        <v>-29.9267</v>
       </c>
     </row>
     <row r="76">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>21.71322</v>
+        <v>21.76278</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.3404</v>
+        <v>2.38932</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7.404866666666667</v>
+        <v>7.9212</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3346600000000001</v>
+        <v>0.6589400000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20.33836666666667</v>
+        <v>20.39676666666666</v>
       </c>
     </row>
     <row r="82">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1.767633333333333</v>
+        <v>-1.698866666666667</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-8.7142</v>
+        <v>-8.639466666666667</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.482400000000001</v>
+        <v>7.5547</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-9.313633333333334</v>
+        <v>-9.257866666666667</v>
       </c>
     </row>
     <row r="87">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>26.14566</v>
+        <v>26.1725</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-12.53596666666667</v>
+        <v>-12.0449</v>
       </c>
     </row>
     <row r="90">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.5833750000000002</v>
+        <v>-0.5234750000000012</v>
       </c>
     </row>
     <row r="92">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3.632</v>
+        <v>3.85372</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>14.75548</v>
+        <v>14.80394</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-63.20434</v>
+        <v>-63.16616</v>
       </c>
     </row>
     <row r="97">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>22.17703333333333</v>
+        <v>22.2474</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.32624</v>
+        <v>2.36884</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.345666666666666</v>
+        <v>5.429866666666666</v>
       </c>
     </row>
     <row r="101">
@@ -1442,17 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>23.98100000000001</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>sub101</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>14.2872</v>
+        <v>24.04823333333333</v>
       </c>
     </row>
   </sheetData>
